--- a/Project_Schema.xlsx
+++ b/Project_Schema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Group 19 (ParkQuick)\FinalsProjectdetails\Second Presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Group 19 (ParkQuick)\Presentation\Second Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -359,13 +359,37 @@
     <t>user_mobile_no</t>
   </si>
   <si>
-    <t>user_adhar_no</t>
-  </si>
-  <si>
     <t>parking_addr_latitude</t>
   </si>
   <si>
     <t>parking_addr_longitude</t>
+  </si>
+  <si>
+    <t>user_aadhar_no</t>
+  </si>
+  <si>
+    <t>total_slots_2_wheeler</t>
+  </si>
+  <si>
+    <t>total_slots_4_wheeler</t>
+  </si>
+  <si>
+    <t>parking_area_in_sqft</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(10) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(200) </t>
   </si>
 </sst>
 </file>
@@ -886,7 +910,7 @@
   <dimension ref="C1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -978,14 +1002,14 @@
         <v>108</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -994,11 +1018,11 @@
         <v>109</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -1010,15 +1034,17 @@
         <v>110</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
@@ -1026,106 +1052,117 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6"/>
       <c r="H11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>7</v>
+      <c r="C12" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="E13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6"/>
       <c r="H15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1164,23 +1201,27 @@
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -1225,7 +1266,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1234,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>18</v>
